--- a/Jogos_do_Dia/2023-05-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH92"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -867,16 +867,16 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="M4" t="n">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="O4" t="n">
         <v>1.63</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>1.03</v>
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1034,19 +1034,19 @@
         <v>2.91</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF5" t="n">
         <v>1.9</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.42</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>3.42</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1.05</v>
@@ -1093,10 +1093,10 @@
         <v>3.15</v>
       </c>
       <c r="M6" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="N6" t="n">
-        <v>1.81</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
         <v>1.42</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>3.9</v>
       </c>
       <c r="M7" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1423,10 +1423,10 @@
         <v>2.65</v>
       </c>
       <c r="M9" t="n">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O9" t="n">
         <v>1.52</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
@@ -1685,25 +1685,25 @@
         <v>2.83</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF11" t="n">
         <v>1.95</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
         <v>1.06</v>
@@ -1753,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.45</v>
@@ -1795,25 +1795,25 @@
         <v>2.39</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF12" t="n">
         <v>1.95</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -1833,40 +1833,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.72</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.23</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.16</v>
+        <v>1.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="L13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N13" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="O13" t="n">
         <v>1.4</v>
@@ -1875,58 +1875,58 @@
         <v>2.75</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.8</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.22</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="W13" t="n">
-        <v>0.95</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.4</v>
+        <v>3.65</v>
       </c>
       <c r="AB13" t="n">
         <v>6</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.35</v>
+        <v>1.35</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
-        <v>3.42</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.43</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1973,10 +1973,10 @@
         <v>4.05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.52</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>3.08</v>
       </c>
       <c r="M15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="G16" t="n">
-        <v>4.95</v>
+        <v>6.5</v>
       </c>
       <c r="H16" t="n">
-        <v>9.75</v>
+        <v>17.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.02</v>
@@ -2193,10 +2193,10 @@
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -2285,10 +2285,10 @@
         <v>1.52</v>
       </c>
       <c r="G17" t="n">
-        <v>3.59</v>
+        <v>4.25</v>
       </c>
       <c r="H17" t="n">
-        <v>5.17</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>1.03</v>
@@ -2303,10 +2303,10 @@
         <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="N17" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2383,100 +2383,100 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.65</v>
+        <v>3.5</v>
       </c>
       <c r="G18" t="n">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>2.37</v>
+        <v>2.05</v>
       </c>
       <c r="I18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="K18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.28</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.2</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="W18" t="n">
-        <v>1.73</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>3.65</v>
+        <v>2.15</v>
       </c>
       <c r="AB18" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.35</v>
+        <v>1.83</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.49</v>
+        <v>1.66</v>
       </c>
       <c r="AF18" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.07</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>1.02</v>
@@ -2523,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="N19" t="n">
-        <v>1.77</v>
+        <v>2.14</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="G20" t="n">
-        <v>3.29</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.27</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2633,10 +2633,10 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="N20" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="G21" t="n">
-        <v>3.13</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,10 +2743,10 @@
         <v>3.5</v>
       </c>
       <c r="M21" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N21" t="n">
         <v>1.9</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.87</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>3.01</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2853,10 +2853,10 @@
         <v>3.08</v>
       </c>
       <c r="M22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2933,40 +2933,40 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="G23" t="n">
-        <v>3.29</v>
+        <v>3.7</v>
       </c>
       <c r="H23" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="I23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="L23" t="n">
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N23" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.4</v>
@@ -2975,58 +2975,58 @@
         <v>2.75</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.91</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="T23" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U23" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="X23" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.45</v>
+        <v>2.53</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.45</v>
+        <v>3.35</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="AG23" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3043,100 +3043,100 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.45</v>
+        <v>1.65</v>
       </c>
       <c r="G24" t="n">
-        <v>3.07</v>
+        <v>3.75</v>
       </c>
       <c r="H24" t="n">
-        <v>1.94</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="L24" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M24" t="n">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="N24" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S24" t="n">
-        <v>1.65</v>
+        <v>1.17</v>
       </c>
       <c r="T24" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>1.32</v>
+        <v>0.82</v>
       </c>
       <c r="X24" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.58</v>
+        <v>0.96</v>
       </c>
       <c r="Z24" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="AG24" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25">
@@ -3153,76 +3153,76 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Veres Rivne</t>
+          <t>Rukh Vynnyky</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kolos Kovalivka</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>2.35</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M25" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="V25" t="n">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="W25" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.96</v>
+        <v>1.12</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rukh Vynnyky</t>
+          <t>Veres Rivne</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Kolos Kovalivka</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N26" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="X26" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.12</v>
+        <v>0.96</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="G27" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I27" t="n">
         <v>1.04</v>
@@ -3403,10 +3403,10 @@
         <v>2.83</v>
       </c>
       <c r="M27" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="N27" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O27" t="n">
         <v>1.51</v>
@@ -3492,10 +3492,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="G28" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>2.7</v>
@@ -3513,10 +3513,10 @@
         <v>2.8</v>
       </c>
       <c r="M28" t="n">
-        <v>2.35</v>
+        <v>2.28</v>
       </c>
       <c r="N28" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O28" t="n">
         <v>1.48</v>
@@ -3582,87 +3582,87 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ukraine Ukrainian Premier League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
         <v>45054.45833333334</v>
       </c>
       <c r="C29" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Zorya</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Metalist 1925 Kharkiv</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>5.75</v>
+        <v>1.66</v>
       </c>
       <c r="I29" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J29" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="L29" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R29" t="n">
         <v>1.7</v>
       </c>
-      <c r="N29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.92</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="U29" t="n">
-        <v>2.28</v>
+        <v>1.14</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="W29" t="n">
-        <v>1.17</v>
+        <v>2.13</v>
       </c>
       <c r="X29" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -3677,10 +3677,10 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>0</v>
@@ -3692,331 +3692,331 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Ukraine Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
         <v>45054.45833333334</v>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Zorya</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>3.36</v>
+        <v>3.8</v>
       </c>
       <c r="H30" t="n">
-        <v>2.79</v>
+        <v>5.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="J30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K30" t="n">
         <v>1.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="S30" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="T30" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="U30" t="n">
-        <v>1.44</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AE30" t="n">
         <v>1.47</v>
       </c>
-      <c r="W30" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AF30" t="n">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="AH30" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
         <v>45054.45833333334</v>
       </c>
       <c r="C31" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="G31" t="n">
-        <v>3.02</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.12</v>
+        <v>2.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="J31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="K31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L31" t="n">
-        <v>3.62</v>
+        <v>3.8</v>
       </c>
       <c r="M31" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="N31" t="n">
-        <v>1.62</v>
+        <v>1.92</v>
       </c>
       <c r="O31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
         <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>1.49</v>
       </c>
       <c r="T31" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V31" t="n">
-        <v>0.95</v>
+        <v>1.47</v>
       </c>
       <c r="W31" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="X31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y31" t="n">
         <v>1.27</v>
       </c>
-      <c r="Y31" t="n">
-        <v>1</v>
-      </c>
       <c r="Z31" t="n">
-        <v>2.27</v>
+        <v>2.84</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="AB31" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="AG31" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
         <v>45054.45833333334</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="J32" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="K32" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>3.62</v>
       </c>
       <c r="M32" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="O32" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R32" t="n">
         <v>2.1</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="T32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD32" t="n">
         <v>1.22</v>
       </c>
-      <c r="U32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0</v>
-      </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.09</v>
+        <v>3.6</v>
       </c>
       <c r="H33" t="n">
-        <v>2.61</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
         <v>1.01</v>
@@ -4063,10 +4063,10 @@
         <v>3.48</v>
       </c>
       <c r="M33" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="N33" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -4143,40 +4143,40 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.28</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="I34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J34" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M34" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="O34" t="n">
         <v>1.33</v>
@@ -4191,52 +4191,52 @@
         <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U34" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="V34" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="W34" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.99</v>
+        <v>2.7</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AB34" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="AD34" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AF34" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AH34" t="n">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="35">
@@ -4253,40 +4253,40 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>3.65</v>
       </c>
       <c r="G35" t="n">
-        <v>3.37</v>
+        <v>3.95</v>
       </c>
       <c r="H35" t="n">
-        <v>2.71</v>
+        <v>1.95</v>
       </c>
       <c r="I35" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="J35" t="n">
-        <v>9.75</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.48</v>
       </c>
       <c r="M35" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="N35" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -4301,52 +4301,52 @@
         <v>2.2</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="U35" t="n">
-        <v>1.6</v>
+        <v>1.26</v>
       </c>
       <c r="V35" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="AB35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>2.3</v>
+        <v>1.48</v>
       </c>
       <c r="AD35" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AF35" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="AG35" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AH35" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4363,100 +4363,100 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.69</v>
+        <v>2.95</v>
       </c>
       <c r="G36" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="n">
-        <v>4.32</v>
+        <v>2.3</v>
       </c>
       <c r="I36" t="n">
         <v>1.04</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="L36" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="N36" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.36</v>
       </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="V36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF36" t="n">
         <v>1.83</v>
       </c>
-      <c r="R36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U36" t="n">
+      <c r="AG36" t="n">
         <v>2.3</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AH36" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="37">
@@ -4473,100 +4473,100 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Norwich City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.42</v>
+        <v>1.95</v>
       </c>
       <c r="G37" t="n">
-        <v>3.81</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
-        <v>7.57</v>
+        <v>4.15</v>
       </c>
       <c r="I37" t="n">
         <v>1.03</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD37" t="n">
         <v>1.22</v>
       </c>
-      <c r="L37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="AE37" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AG37" t="n">
         <v>2.3</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U37" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AH37" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="38">
@@ -4583,100 +4583,100 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
       <c r="G38" t="n">
-        <v>3.54</v>
+        <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>4.21</v>
+        <v>2.75</v>
       </c>
       <c r="I38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K38" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="L38" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="N38" t="n">
         <v>2.02</v>
       </c>
-      <c r="N38" t="n">
-        <v>1.82</v>
-      </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P38" t="n">
-        <v>3.11</v>
+        <v>3.25</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="T38" t="n">
         <v>1.28</v>
       </c>
       <c r="U38" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="V38" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="W38" t="n">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="X38" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AB38" t="n">
-        <v>6.75</v>
+        <v>6</v>
       </c>
       <c r="AC38" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AD38" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AF38" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="39">
@@ -4693,85 +4693,85 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="G39" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="H39" t="n">
-        <v>3.15</v>
+        <v>5.3</v>
       </c>
       <c r="I39" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K39" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L39" t="n">
         <v>3.6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="N39" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="T39" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="U39" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="V39" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W39" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="X39" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.41</v>
+        <v>1.16</v>
       </c>
       <c r="Z39" t="n">
-        <v>2.99</v>
+        <v>2.93</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="AD39" t="n">
         <v>1.2</v>
@@ -4780,13 +4780,13 @@
         <v>1.39</v>
       </c>
       <c r="AF39" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AG39" t="n">
         <v>2.2</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="G40" t="n">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.32</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
         <v>1.01</v>
@@ -4833,10 +4833,10 @@
         <v>3.8</v>
       </c>
       <c r="M40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N40" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="O40" t="n">
         <v>1.35</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="G41" t="n">
-        <v>4.09</v>
+        <v>5</v>
       </c>
       <c r="H41" t="n">
-        <v>7.95</v>
+        <v>9.5</v>
       </c>
       <c r="I41" t="n">
         <v>1.04</v>
@@ -4943,10 +4943,10 @@
         <v>4.3</v>
       </c>
       <c r="M41" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="N41" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.59</v>
+        <v>4.1</v>
       </c>
       <c r="G42" t="n">
-        <v>3.26</v>
+        <v>3.55</v>
       </c>
       <c r="H42" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I42" t="n">
         <v>1.05</v>
@@ -5056,7 +5056,7 @@
         <v>1.95</v>
       </c>
       <c r="N42" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -5133,40 +5133,40 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Norwich City</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Blackpool</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.28</v>
+        <v>1.51</v>
       </c>
       <c r="G43" t="n">
-        <v>3.28</v>
+        <v>4.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.04</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="J43" t="n">
-        <v>9.699999999999999</v>
+        <v>12</v>
       </c>
       <c r="K43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="L43" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="M43" t="n">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="N43" t="n">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="O43" t="n">
         <v>1.33</v>
@@ -5175,58 +5175,58 @@
         <v>3.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>1.13</v>
       </c>
       <c r="T43" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="U43" t="n">
-        <v>1.26</v>
+        <v>2.57</v>
       </c>
       <c r="V43" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.64</v>
+        <v>0.77</v>
       </c>
       <c r="X43" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.05</v>
+        <v>1.2</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.48</v>
+        <v>6</v>
       </c>
       <c r="AD43" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AF43" t="n">
-        <v>1.88</v>
+        <v>1.6</v>
       </c>
       <c r="AG43" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="AH43" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="44">
@@ -5353,76 +5353,76 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AS Slimane</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Métlaoui</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V45" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="W45" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X45" t="n">
-        <v>1.39</v>
+        <v>0.99</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="Z45" t="n">
-        <v>2.27</v>
+        <v>1.97</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -5463,22 +5463,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hammam-Sousse</t>
+          <t>AS Slimane</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EO Sidi Bouzid</t>
+          <t>Métlaoui</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -5487,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -5523,16 +5523,16 @@
         <v>1.1</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="X46" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="AA46" t="n">
         <v>0</v>
@@ -5573,76 +5573,76 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Hammam-Sousse</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>EO Sidi Bouzid</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="W47" t="n">
-        <v>1.35</v>
+        <v>0.7</v>
       </c>
       <c r="X47" t="n">
-        <v>0.99</v>
+        <v>1.04</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AA47" t="n">
         <v>0</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="G48" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="H48" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="I48" t="n">
         <v>1.09</v>
@@ -5707,16 +5707,16 @@
         <v>6.5</v>
       </c>
       <c r="K48" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="L48" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="M48" t="n">
-        <v>2.55</v>
+        <v>2.41</v>
       </c>
       <c r="N48" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.56</v>
@@ -5776,93 +5776,93 @@
         <v>4.25</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tunisia Ligue 1</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
         <v>45054.54166666666</v>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Monastir</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Olympique Béja</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="W49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X49" t="n">
         <v>1.63</v>
       </c>
-      <c r="X49" t="n">
-        <v>1.32</v>
-      </c>
       <c r="Y49" t="n">
-        <v>1.04</v>
+        <v>1.3</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.36</v>
+        <v>2.93</v>
       </c>
       <c r="AA49" t="n">
         <v>0</v>
@@ -5892,87 +5892,87 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
         <v>45054.54166666666</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Olympique Béja</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>2.91</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>4.91</v>
       </c>
       <c r="I50" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="N50" t="n">
         <v>1.33</v>
       </c>
-      <c r="L50" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.7</v>
-      </c>
       <c r="O50" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="W50" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="X50" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.93</v>
+        <v>2.36</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="G51" t="n">
-        <v>3.29</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
         <v>1.05</v>
@@ -6043,10 +6043,10 @@
         <v>3.45</v>
       </c>
       <c r="M51" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N51" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>
@@ -6132,13 +6132,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G52" t="n">
-        <v>4.01</v>
+        <v>4.1</v>
       </c>
       <c r="H52" t="n">
-        <v>6.32</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
         <v>1.03</v>
@@ -6153,10 +6153,10 @@
         <v>3.88</v>
       </c>
       <c r="M52" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="N52" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="O52" t="n">
         <v>1.33</v>
@@ -6242,13 +6242,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="G53" t="n">
-        <v>3.88</v>
+        <v>5.25</v>
       </c>
       <c r="H53" t="n">
-        <v>5.45</v>
+        <v>8.5</v>
       </c>
       <c r="I53" t="n">
         <v>1.02</v>
@@ -6263,10 +6263,10 @@
         <v>5.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="N53" t="n">
-        <v>1.9</v>
+        <v>2.23</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -6352,13 +6352,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G54" t="n">
-        <v>5.75</v>
+        <v>6.1</v>
       </c>
       <c r="H54" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="I54" t="n">
         <v>1.02</v>
@@ -6373,10 +6373,10 @@
         <v>4.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="N54" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="O54" t="n">
         <v>1.29</v>
@@ -6462,13 +6462,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G55" t="n">
-        <v>3.21</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>2.27</v>
+        <v>2.36</v>
       </c>
       <c r="I55" t="n">
         <v>1.03</v>
@@ -6483,10 +6483,10 @@
         <v>3.7</v>
       </c>
       <c r="M55" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="N55" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="O55" t="n">
         <v>1.33</v>
@@ -6552,111 +6552,111 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Norway Eliteserien</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
         <v>45054.58333333334</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Brann</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sandefjord</t>
+          <t>Norrköping</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.21</v>
+        <v>2.7</v>
       </c>
       <c r="G56" t="n">
-        <v>4.82</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="I56" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="J56" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K56" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="L56" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="N56" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P56" t="n">
-        <v>3.6</v>
+        <v>2.87</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>2.18</v>
       </c>
       <c r="S56" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="T56" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>1.42</v>
       </c>
       <c r="V56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X56" t="n">
-        <v>1.99</v>
+        <v>1.36</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF56" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AG56" t="n">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="57">
@@ -6673,55 +6673,55 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="G57" t="n">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
-        <v>2.31</v>
+        <v>2.6</v>
       </c>
       <c r="I57" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J57" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="K57" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="L57" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M57" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="N57" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="R57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="S57" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="T57" t="n">
         <v>1.32</v>
@@ -6730,153 +6730,153 @@
         <v>1.42</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W57" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="Z57" t="n">
-        <v>2.5</v>
+        <v>2.06</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AB57" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="AD57" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AG57" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AH57" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Norway Eliteserien</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
         <v>45054.58333333334</v>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Brann</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Elfsborg</t>
+          <t>Sandefjord</t>
         </is>
       </c>
       <c r="F58" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10</v>
-      </c>
-      <c r="K58" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V58" t="n">
+      <c r="W58" t="n">
         <v>0.5</v>
       </c>
-      <c r="W58" t="n">
-        <v>2.33</v>
-      </c>
       <c r="X58" t="n">
-        <v>0.93</v>
+        <v>1.99</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="Z58" t="n">
-        <v>2.56</v>
+        <v>2.85</v>
       </c>
       <c r="AA58" t="n">
-        <v>2.43</v>
+        <v>1.07</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.75</v>
+        <v>11.5</v>
       </c>
       <c r="AD58" t="n">
         <v>0</v>
       </c>
       <c r="AE58" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF58" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AG58" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AH58" t="n">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="59">
@@ -6902,13 +6902,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G59" t="n">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="H59" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I59" t="n">
         <v>1.02</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="G60" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="H60" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I60" t="n">
         <v>1.04</v>
@@ -7033,10 +7033,10 @@
         <v>4.12</v>
       </c>
       <c r="M60" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="O60" t="n">
         <v>1.38</v>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="I61" t="n">
         <v>1.07</v>
@@ -7146,7 +7146,7 @@
         <v>2.1</v>
       </c>
       <c r="N61" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O61" t="n">
         <v>1.44</v>
@@ -7223,100 +7223,100 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Elfsborg</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="G62" t="n">
-        <v>3.09</v>
+        <v>3.65</v>
       </c>
       <c r="H62" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="J62" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="K62" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="L62" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M62" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="N62" t="n">
-        <v>1.7</v>
+        <v>2.14</v>
       </c>
       <c r="O62" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="R62" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="S62" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="T62" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U62" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="V62" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="X62" t="n">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.83</v>
+        <v>1.63</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.12</v>
+        <v>2.43</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AD62" t="n">
         <v>1.12</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AF62" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AG62" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AH62" t="n">
-        <v>2.35</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="63">
@@ -7342,13 +7342,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G63" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="H63" t="n">
-        <v>3.69</v>
+        <v>4.5</v>
       </c>
       <c r="I63" t="n">
         <v>1.06</v>
@@ -7363,10 +7363,10 @@
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="O63" t="n">
         <v>1.4</v>
@@ -7461,7 +7461,7 @@
         <v>23</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J64" t="n">
         <v>12</v>
@@ -7473,10 +7473,10 @@
         <v>4.25</v>
       </c>
       <c r="M64" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="N64" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="O64" t="n">
         <v>1.3</v>
@@ -7542,111 +7542,111 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
         <v>45054.625</v>
       </c>
       <c r="C65" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Unión Comercio</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Melgar</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>4.15</v>
       </c>
       <c r="H65" t="n">
-        <v>2.37</v>
+        <v>1.49</v>
       </c>
       <c r="I65" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="J65" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="K65" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L65" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M65" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N65" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
         <v>1.75</v>
       </c>
-      <c r="O65" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P65" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2</v>
-      </c>
       <c r="S65" t="n">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="T65" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="U65" t="n">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W65" t="n">
-        <v>0.57</v>
+        <v>2.12</v>
       </c>
       <c r="X65" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.34</v>
+        <v>1.54</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.8</v>
+        <v>3.14</v>
       </c>
       <c r="AA65" t="n">
-        <v>2.25</v>
+        <v>3.74</v>
       </c>
       <c r="AB65" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="AD65" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="AF65" t="n">
-        <v>1.51</v>
+        <v>2.48</v>
       </c>
       <c r="AG65" t="n">
-        <v>1.9</v>
+        <v>3.45</v>
       </c>
       <c r="AH65" t="n">
-        <v>2.36</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="66">
@@ -7672,13 +7672,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G66" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I66" t="n">
         <v>1.05</v>
@@ -7693,7 +7693,7 @@
         <v>3.6</v>
       </c>
       <c r="M66" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N66" t="n">
         <v>1.95</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="G67" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H67" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
         <v>1.05</v>
@@ -7803,10 +7803,10 @@
         <v>3.4</v>
       </c>
       <c r="M67" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O67" t="n">
         <v>1.4</v>
@@ -7872,331 +7872,331 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
         <v>45054.625</v>
       </c>
       <c r="C68" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Famalicão</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>GD Chaves</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.87</v>
+        <v>6.7</v>
       </c>
       <c r="G68" t="n">
-        <v>3.26</v>
+        <v>5.1</v>
       </c>
       <c r="H68" t="n">
-        <v>3.85</v>
+        <v>1.29</v>
       </c>
       <c r="I68" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="K68" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="L68" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P68" t="n">
         <v>3.1</v>
       </c>
-      <c r="M68" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N68" t="n">
+      <c r="Q68" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1</v>
+      </c>
+      <c r="W68" t="n">
         <v>1.65</v>
       </c>
-      <c r="O68" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P68" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R68" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T68" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U68" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V68" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W68" t="n">
+      <c r="X68" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y68" t="n">
         <v>1.33</v>
       </c>
-      <c r="X68" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>1.39</v>
-      </c>
       <c r="Z68" t="n">
-        <v>2.91</v>
+        <v>2.37</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.64</v>
+        <v>6</v>
       </c>
       <c r="AB68" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC68" t="n">
-        <v>2.66</v>
+        <v>1.19</v>
       </c>
       <c r="AD68" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.26</v>
+        <v>1.72</v>
       </c>
       <c r="AF68" t="n">
-        <v>1.47</v>
+        <v>2.23</v>
       </c>
       <c r="AG68" t="n">
-        <v>1.88</v>
+        <v>3.1</v>
       </c>
       <c r="AH68" t="n">
-        <v>2.37</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
         <v>45054.625</v>
       </c>
       <c r="C69" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Unión Comercio</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Melgar</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="G69" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="I69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J69" t="n">
         <v>10</v>
       </c>
       <c r="K69" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="L69" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M69" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="N69" t="n">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="O69" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P69" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Q69" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
         <v>1.57</v>
       </c>
-      <c r="R69" t="n">
+      <c r="T69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA69" t="n">
         <v>2.25</v>
       </c>
-      <c r="S69" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T69" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U69" t="n">
+      <c r="AB69" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC69" t="n">
         <v>1.8</v>
       </c>
-      <c r="V69" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="X69" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>2.71</v>
-      </c>
       <c r="AD69" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.92</v>
+        <v>1.51</v>
       </c>
       <c r="AG69" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="AH69" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
         <v>45054.625</v>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Olympiakos Piraeus</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PEC Zwolle</t>
+          <t>Panathinaikos</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="I70" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="J70" t="n">
-        <v>28</v>
+        <v>7.25</v>
       </c>
       <c r="K70" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="L70" t="n">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="M70" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="N70" t="n">
-        <v>2.9</v>
+        <v>1.57</v>
       </c>
       <c r="O70" t="n">
-        <v>1.2</v>
+        <v>1.51</v>
       </c>
       <c r="P70" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W70" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AA70" t="n">
         <v>2.4</v>
       </c>
-      <c r="S70" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W70" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y70" t="n">
+      <c r="AB70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC70" t="n">
         <v>1.82</v>
       </c>
-      <c r="Z70" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AD70" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AE70" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.87</v>
+        <v>2.41</v>
       </c>
       <c r="AG70" t="n">
-        <v>2.45</v>
+        <v>3.34</v>
       </c>
       <c r="AH70" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="71">
@@ -8213,100 +8213,100 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F71" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE71" t="n">
         <v>1.53</v>
       </c>
-      <c r="G71" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H71" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J71" t="n">
-        <v>21</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X71" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>1.58</v>
-      </c>
       <c r="AF71" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="AG71" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AH71" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="72">
@@ -8323,1616 +8323,1616 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>PEC Zwolle</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.47</v>
+        <v>5.5</v>
       </c>
       <c r="G72" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
-        <v>2.52</v>
+        <v>1.45</v>
       </c>
       <c r="I72" t="n">
         <v>1.01</v>
       </c>
       <c r="J72" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K72" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="L72" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="M72" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="N72" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P72" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R72" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="S72" t="n">
-        <v>1.53</v>
+        <v>2.69</v>
       </c>
       <c r="T72" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U72" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="V72" t="n">
         <v>1.35</v>
       </c>
       <c r="W72" t="n">
-        <v>1.41</v>
+        <v>2.06</v>
       </c>
       <c r="X72" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE72" t="n">
         <v>1.5</v>
       </c>
-      <c r="Y72" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AF72" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="AG72" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AH72" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>45054.64583333334</v>
+        <v>45054.625</v>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Arsenal de Sarandí</t>
+          <t>Famalicão</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>GD Chaves</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="G73" t="n">
-        <v>3.11</v>
+        <v>3.3</v>
       </c>
       <c r="H73" t="n">
-        <v>2.93</v>
+        <v>3.75</v>
       </c>
       <c r="I73" t="n">
         <v>1.06</v>
       </c>
       <c r="J73" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="K73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="L73" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M73" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N73" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="O73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF73" t="n">
         <v>1.47</v>
       </c>
-      <c r="P73" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R73" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S73" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T73" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U73" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X73" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AG73" t="n">
-        <v>2.45</v>
+        <v>1.88</v>
       </c>
       <c r="AH73" t="n">
-        <v>3.4</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>45054.64583333334</v>
+        <v>45054.625</v>
       </c>
       <c r="C74" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="G74" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H74" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J74" t="n">
+        <v>21</v>
+      </c>
+      <c r="K74" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P74" t="n">
         <v>3.2</v>
       </c>
-      <c r="H74" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J74" t="n">
-        <v>10</v>
-      </c>
-      <c r="K74" t="n">
+      <c r="Q74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AD74" t="n">
         <v>1.32</v>
       </c>
-      <c r="L74" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P74" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S74" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U74" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V74" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>0</v>
-      </c>
       <c r="AE74" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AG74" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH74" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>45054.65625</v>
+        <v>45054.625</v>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.51</v>
+        <v>2.47</v>
       </c>
       <c r="G75" t="n">
-        <v>3.31</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
-        <v>6.08</v>
+        <v>2.52</v>
       </c>
       <c r="I75" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="J75" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="K75" t="n">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="L75" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>2.3</v>
+        <v>1.42</v>
       </c>
       <c r="N75" t="n">
-        <v>1.57</v>
+        <v>2.8</v>
       </c>
       <c r="O75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X75" t="n">
         <v>1.5</v>
       </c>
-      <c r="P75" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R75" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S75" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="U75" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V75" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="W75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X75" t="n">
-        <v>1.46</v>
-      </c>
       <c r="Y75" t="n">
-        <v>1.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.34</v>
+        <v>2.05</v>
       </c>
       <c r="AB75" t="n">
-        <v>10</v>
+        <v>5.75</v>
       </c>
       <c r="AC75" t="n">
-        <v>4.05</v>
+        <v>2</v>
       </c>
       <c r="AD75" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="AF75" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="AG75" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="AH75" t="n">
-        <v>3.86</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>45054.65625</v>
+        <v>45054.64583333334</v>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Arsenal de Sarandí</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="G76" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="H76" t="n">
         <v>2.93</v>
       </c>
       <c r="I76" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="J76" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="K76" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L76" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="M76" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="N76" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O76" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="P76" t="n">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R76" t="n">
         <v>1.75</v>
       </c>
-      <c r="R76" t="n">
-        <v>2</v>
-      </c>
       <c r="S76" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="T76" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="U76" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="V76" t="n">
-        <v>1.69</v>
+        <v>1.17</v>
       </c>
       <c r="W76" t="n">
-        <v>1.06</v>
+        <v>0.57</v>
       </c>
       <c r="X76" t="n">
-        <v>1.51</v>
+        <v>1.15</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.89</v>
+        <v>2.41</v>
       </c>
       <c r="AA76" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AB76" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC76" t="n">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AD76" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AG76" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="AH76" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>45054.66666666666</v>
+        <v>45054.64583333334</v>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UD Las Palmas</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="H77" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I77" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="J77" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="K77" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="L77" t="n">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="M77" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="N77" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O77" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="P77" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="S77" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T77" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="U77" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V77" t="n">
-        <v>2.11</v>
+        <v>1.43</v>
       </c>
       <c r="W77" t="n">
-        <v>1.58</v>
+        <v>0.71</v>
       </c>
       <c r="X77" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="Z77" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AB77" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC77" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AD77" t="n">
         <v>1.29</v>
       </c>
       <c r="AE77" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AF77" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AG77" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="AH77" t="n">
-        <v>3.75</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>45054.66666666666</v>
+        <v>45054.65625</v>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q78" t="n">
         <v>2.25</v>
       </c>
-      <c r="G78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J78" t="n">
+      <c r="R78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AB78" t="n">
         <v>10</v>
       </c>
-      <c r="K78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="N78" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P78" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R78" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U78" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V78" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X78" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC78" t="n">
-        <v>2.17</v>
+        <v>4.05</v>
       </c>
       <c r="AD78" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AE78" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AF78" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="AG78" t="n">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="AH78" t="n">
-        <v>3.25</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45054.70833333334</v>
+        <v>45054.65625</v>
       </c>
       <c r="C79" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="G79" t="n">
-        <v>2.97</v>
+        <v>3.45</v>
       </c>
       <c r="H79" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J79" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L79" t="n">
         <v>3.8</v>
       </c>
-      <c r="I79" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.4</v>
-      </c>
       <c r="M79" t="n">
-        <v>2.53</v>
+        <v>1.93</v>
       </c>
       <c r="N79" t="n">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="O79" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="P79" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U79" t="n">
         <v>1.62</v>
       </c>
-      <c r="S79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U79" t="n">
-        <v>1.55</v>
-      </c>
       <c r="V79" t="n">
-        <v>2.71</v>
+        <v>1.69</v>
       </c>
       <c r="W79" t="n">
-        <v>2.17</v>
+        <v>1.06</v>
       </c>
       <c r="X79" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z79" t="n">
-        <v>2.79</v>
+        <v>2.89</v>
       </c>
       <c r="AA79" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AB79" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>3.46</v>
+        <v>2.33</v>
       </c>
       <c r="AD79" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AE79" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="AF79" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AG79" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="AH79" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45054.71875</v>
+        <v>45054.66666666666</v>
       </c>
       <c r="C80" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FC Arouca</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>UD Las Palmas</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>6.75</v>
+        <v>2.2</v>
       </c>
       <c r="G80" t="n">
-        <v>4.46</v>
+        <v>3.15</v>
       </c>
       <c r="H80" t="n">
-        <v>1.37</v>
+        <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="J80" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="K80" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="M80" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U80" t="n">
         <v>1.7</v>
       </c>
-      <c r="N80" t="n">
+      <c r="V80" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AA80" t="n">
         <v>2.1</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P80" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S80" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T80" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="V80" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W80" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X80" t="n">
+      <c r="AB80" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD80" t="n">
         <v>1.29</v>
       </c>
-      <c r="Y80" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AD80" t="n">
-        <v>1.2</v>
-      </c>
       <c r="AE80" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="AG80" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AH80" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45054.8125</v>
+        <v>45054.66666666666</v>
       </c>
       <c r="C81" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Talleres Córdoba</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2.13</v>
+        <v>2.06</v>
       </c>
       <c r="G81" t="n">
-        <v>3.39</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J81" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="L81" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N81" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="R81" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S81" t="n">
         <v>1.3</v>
       </c>
       <c r="T81" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U81" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="V81" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="W81" t="n">
-        <v>1.83</v>
+        <v>0.82</v>
       </c>
       <c r="X81" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AB81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC81" t="n">
-        <v>2.52</v>
+        <v>2.17</v>
       </c>
       <c r="AD81" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AE81" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AF81" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="AG81" t="n">
         <v>2.45</v>
       </c>
       <c r="AH81" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Paraguay Division Profesional</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45054.83333333334</v>
+        <v>45054.70833333334</v>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="G82" t="n">
-        <v>4.33</v>
+        <v>2.97</v>
       </c>
       <c r="H82" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T82" t="n">
         <v>1.4</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
-      <c r="R82" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0</v>
-      </c>
-      <c r="T82" t="n">
-        <v>0</v>
-      </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V82" t="n">
-        <v>0.71</v>
+        <v>2.71</v>
       </c>
       <c r="W82" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="X82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD82" t="n">
         <v>1.27</v>
       </c>
-      <c r="Y82" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>0</v>
-      </c>
       <c r="AE82" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG82" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH82" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bolivia LFPB</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45054.83333333334</v>
+        <v>45054.71875</v>
       </c>
       <c r="C83" t="n">
+        <v>31</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>FC Arouca</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>8</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J83" t="n">
         <v>12</v>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Bolívar</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Universitario de Vinto</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G83" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H83" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>16</v>
-      </c>
       <c r="K83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U83" t="n">
         <v>1.09</v>
       </c>
-      <c r="L83" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P83" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R83" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S83" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T83" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U83" t="n">
-        <v>3.68</v>
-      </c>
       <c r="V83" t="n">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="W83" t="n">
-        <v>1.4</v>
+        <v>2.27</v>
       </c>
       <c r="X83" t="n">
-        <v>2.04</v>
+        <v>1.29</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="Z83" t="n">
-        <v>3.57</v>
+        <v>3.12</v>
       </c>
       <c r="AA83" t="n">
-        <v>1.34</v>
+        <v>5.15</v>
       </c>
       <c r="AB83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC83" t="n">
-        <v>3.88</v>
+        <v>1.23</v>
       </c>
       <c r="AD83" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE83" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF83" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AG83" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Mexico Ascenso MX</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>45054.83333333334</v>
+        <v>45054.79166666666</v>
       </c>
       <c r="C84" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>0.71</v>
+        <v>1.49</v>
       </c>
       <c r="W84" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="X84" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Z84" t="n">
-        <v>1.26</v>
+        <v>2.94</v>
       </c>
       <c r="AA84" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AB84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC84" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AD84" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AE84" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AF84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG84" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH84" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Primera División</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>45054.83333333334</v>
+        <v>45054.8125</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Talleres Córdoba</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.81</v>
+        <v>2.13</v>
       </c>
       <c r="G85" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="H85" t="n">
-        <v>4.23</v>
+        <v>3.34</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="M85" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="N85" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="R85" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA85" t="n">
         <v>1.75</v>
       </c>
-      <c r="S85" t="n">
-        <v>0</v>
-      </c>
-      <c r="T85" t="n">
-        <v>0</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0</v>
-      </c>
-      <c r="V85" t="n">
-        <v>3</v>
-      </c>
-      <c r="W85" t="n">
-        <v>3</v>
-      </c>
-      <c r="X85" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Z85" t="n">
+      <c r="AB85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH85" t="n">
         <v>3.4</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Brazil Serie B</t>
+          <t>Paraguay Division Profesional</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
         <v>45054.83333333334</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Atlético GO</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.66</v>
+        <v>7.5</v>
       </c>
       <c r="G86" t="n">
-        <v>3.23</v>
+        <v>4.33</v>
       </c>
       <c r="H86" t="n">
-        <v>4.58</v>
+        <v>1.4</v>
       </c>
       <c r="I86" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N86" t="n">
-        <v>1.53</v>
+        <v>1.95</v>
       </c>
       <c r="O86" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
-        <v>3</v>
+        <v>0.71</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="X86" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.23</v>
+        <v>1.64</v>
       </c>
       <c r="Z86" t="n">
-        <v>2.58</v>
+        <v>2.91</v>
       </c>
       <c r="AA86" t="n">
         <v>0</v>
@@ -9962,108 +9962,108 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Brazil Serie D</t>
+          <t>Bolivia LFPB</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
         <v>45054.83333333334</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Bolívar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Iguatu</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Y87" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Z87" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="AA87" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB87" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC87" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AD87" t="n">
         <v>0</v>
       </c>
       <c r="AE87" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG87" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH87" t="n">
         <v>0</v>
@@ -10072,206 +10072,206 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
         <v>45054.83333333334</v>
       </c>
       <c r="C88" t="n">
+        <v>14</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>4</v>
+      </c>
+      <c r="G88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J88" t="n">
+        <v>8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S88" t="n">
         <v>2</v>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Confiança</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Altos</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="H88" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J88" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="M88" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.25</v>
-      </c>
       <c r="T88" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U88" t="n">
-        <v>1.72</v>
+        <v>1.18</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Y88" t="n">
         <v>0</v>
       </c>
       <c r="Z88" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AA88" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB88" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC88" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD88" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE88" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG88" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH88" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
         <v>45054.83333333334</v>
       </c>
       <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>2</v>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Figueirense</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Paysandu</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="H89" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="J89" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="M89" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O89" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R89" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S89" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="Y89" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="Z89" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AA89" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC89" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AD89" t="n">
         <v>0</v>
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="AF89" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG89" t="n">
         <v>0</v>
@@ -10292,111 +10292,111 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera A</t>
+          <t>Brazil Serie B</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>45054.84375</v>
+        <v>45054.83333333334</v>
       </c>
       <c r="C90" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Atlético GO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="F90" t="n">
         <v>1.75</v>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I90" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="J90" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="L90" t="n">
         <v>2.75</v>
       </c>
       <c r="M90" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="N90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O90" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P90" t="n">
-        <v>2.61</v>
+        <v>2.64</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S90" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="T90" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U90" t="n">
-        <v>1.68</v>
+        <v>2.38</v>
       </c>
       <c r="V90" t="n">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="W90" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="Y90" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="Z90" t="n">
-        <v>3.23</v>
+        <v>2.58</v>
       </c>
       <c r="AA90" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AB90" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC90" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="AD90" t="n">
         <v>0</v>
       </c>
       <c r="AE90" t="n">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="AF90" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AG90" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="AH90" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
@@ -10406,19 +10406,19 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>45054.85416666666</v>
+        <v>45054.83333333334</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Democrata GV</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Santo André</t>
+          <t>Iguatu</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -10512,110 +10512,550 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Confiança</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Altos</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Brazil Serie C</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Figueirense</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Paysandu</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J93" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera A</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45054.84375</v>
+      </c>
+      <c r="C94" t="n">
+        <v>18</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="J94" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Brazil Serie D</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45054.85416666666</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Democrata GV</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Santo André</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
-      <c r="B92" s="2" t="n">
+      <c r="B96" s="2" t="n">
         <v>45054.875</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C96" t="n">
         <v>9</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>LDU Quito</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Delfin SC</t>
         </is>
       </c>
-      <c r="F92" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G92" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H92" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="F96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I96" t="n">
         <v>1.03</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J96" t="n">
         <v>11.5</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K96" t="n">
         <v>1.2</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L96" t="n">
         <v>4.2</v>
       </c>
-      <c r="M92" t="n">
+      <c r="M96" t="n">
         <v>1.65</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N96" t="n">
         <v>2.15</v>
       </c>
-      <c r="O92" t="n">
+      <c r="O96" t="n">
         <v>1.3</v>
       </c>
-      <c r="P92" t="n">
+      <c r="P96" t="n">
         <v>3.4</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q96" t="n">
         <v>2</v>
       </c>
-      <c r="R92" t="n">
+      <c r="R96" t="n">
         <v>1.73</v>
       </c>
-      <c r="S92" t="n">
+      <c r="S96" t="n">
         <v>1.04</v>
       </c>
-      <c r="T92" t="n">
+      <c r="T96" t="n">
         <v>1.12</v>
       </c>
-      <c r="U92" t="n">
+      <c r="U96" t="n">
         <v>2.8</v>
       </c>
-      <c r="V92" t="n">
+      <c r="V96" t="n">
         <v>1.33</v>
       </c>
-      <c r="W92" t="n">
-        <v>0</v>
-      </c>
-      <c r="X92" t="n">
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
         <v>1.95</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="Y96" t="n">
         <v>0.77</v>
       </c>
-      <c r="Z92" t="n">
+      <c r="Z96" t="n">
         <v>2.72</v>
       </c>
-      <c r="AA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD92" t="n">
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD96" t="n">
         <v>1.45</v>
       </c>
-      <c r="AE92" t="n">
+      <c r="AE96" t="n">
         <v>1.82</v>
       </c>
-      <c r="AF92" t="n">
+      <c r="AF96" t="n">
         <v>2.4</v>
       </c>
-      <c r="AG92" t="n">
+      <c r="AG96" t="n">
         <v>3.35</v>
       </c>
-      <c r="AH92" t="n">
+      <c r="AH96" t="n">
         <v>4.8</v>
       </c>
     </row>
